--- a/loaded_influencer_data/karima.ugc.creator/karima.ugc.creator_video.xlsx
+++ b/loaded_influencer_data/karima.ugc.creator/karima.ugc.creator_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,588 +506,639 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karima.ugc.creator/video/7488054294286011653</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>259</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✨ Eid Ready with the Best Picks! 🎁 #UGCMorocco
+#EidMubarak #EidAlFitr #Eid2025 #EidVibes</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>25.48262548262548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17.37451737451737</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.108108108108109</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.247104247104247</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7486241609898577157</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>262</v>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B3" t="n">
+        <v>349</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>"Perfectly Defined Lips! ✨ | Flormar Lip Liner Review"
 #LipLinerHack #TikTokBeauty #BeautyForYou</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>26.7175572519084</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16.79389312977099</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.923664122137405</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.435114503816794</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H3" t="n">
+        <v>26.64756446991404</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.19197707736389</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.455587392550143</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.151862464183381</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/photo/7484019436949654839</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>308</v>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>348</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>✨️التطبيقات و المواقع التي تساعدك في مجال UGC📽
 ✨️Apps and websites that help you with UGC📽 #UGCCreator</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>26.2987012987013</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18.83116883116883</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.467532467532467</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.922077922077922</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H4" t="n">
+        <v>26.14942528735632</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.67816091954023</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.471264367816093</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.873563218390804</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7482159384303291654</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>385</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="B5" t="n">
+        <v>420</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>13</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>✨️Flormar Ultra Thin Eyeliner - Precision in Every Stroke!#Flormar #Eyeliner #MakeupLover #BeautyHacks</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>29.35064935064935</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19.48051948051948</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.870129870129871</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.376623376623376</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>29.28571428571429</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.52380952380953</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.761904761904763</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.095238095238095</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7480675598646496517</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>318</v>
-      </c>
-      <c r="C5" t="n">
-        <v>83</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B6" t="n">
+        <v>337</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>9</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>صاحب مشروع وكتحتاج تسوّق لمنتجاتك بطريقة احترافية تجذب الزبائن؟ أنا كريمة، مصورة UGC، معلقة صوتية، وصانعة محتوى إعلاني، كنوفّر لك فيديوهات إبداعية وعصرية تعرض منتجك بأفضل طريقة وتشد الانتباه.</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>37.42138364779874</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26.10062893081761</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.32075471698113</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.830188679245283</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>36.79525222551928</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25.8160237388724</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.97922848664688</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.670623145400593</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7479516637041806597</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>400</v>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>53</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B7" t="n">
+        <v>437</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>✨️Flormar Lightweight Lip Powder – Soft &amp; Matte Perfection!✨️
 #Flormar #LipPowder #MatteLips #BeautyUGC</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>36.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H7" t="n">
+        <v>34.32494279176201</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.96796338672769</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.35697940503433</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.203661327231121</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7478401423445642504</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>367</v>
-      </c>
-      <c r="C7" t="n">
-        <v>79</v>
-      </c>
-      <c r="D7" t="n">
-        <v>39</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B8" t="n">
+        <v>384</v>
+      </c>
+      <c r="C8" t="n">
+        <v>96</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✨️Flormar Lightweight Lip Powder – Soft &amp; Matte Perfection!✨️
+#Flormar #LipPowder #MatteLips #BeautyUGC</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>39.0625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.0625</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.645833333333333</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karima.ugc.creator/video/7477337020285635845</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>409</v>
+      </c>
+      <c r="C9" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>13</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Night Routine for a Relaxing Evening ✨
 #NightRoutine #SelfCare #RelaxingVibes #Skincare</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>32.15258855585831</v>
-      </c>
-      <c r="I7" t="n">
-        <v>21.52588555858311</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10.6267029972752</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.542234332425068</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H9" t="n">
+        <v>30.56234718826406</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20.78239608801956</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.779951100244499</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.178484107579462</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karima.ugc.creator/video/7477337020285635845</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>396</v>
-      </c>
-      <c r="C8" t="n">
-        <v>90</v>
-      </c>
-      <c r="D8" t="n">
-        <v>47</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karima.ugc.creator/video/7476194165756333318</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>856</v>
+      </c>
+      <c r="C10" t="n">
+        <v>91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>13</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>✨️Exquisite Oud Incense – Oudh Nasaem | UGC Ramadan✨️
 #Bakhoor #Oud #LuxuryIncense #Nabeel</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>34.5959595959596</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22.72727272727273</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.86868686868687</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.282828282828283</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H10" t="n">
+        <v>16.23831775700935</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.63084112149533</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.607476635514018</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.518691588785047</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karima.ugc.creator/video/7476194165756333318</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>796</v>
-      </c>
-      <c r="C9" t="n">
-        <v>97</v>
-      </c>
-      <c r="D9" t="n">
-        <v>54</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>UGC Review: ✨️"Intense Nourishment for Curly &amp; Frizzy Hair with Ultra Doux Shampoo &amp; Care Cream"✨️
-#HairCare</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>18.96984924623116</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.18592964824121</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.78391959798995</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.256281407035176</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-02-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7475450750873668869</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>433</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>91</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>43</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>12</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Avon Foot Works Cracked Heel Cream | Deep Repair &amp; Hydration✨️✨️
 #AvonFootWorks
 #HeelHydration</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>30.94688221709007</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>21.0161662817552</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>9.930715935334874</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>2.771362586605081</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7474328655846542647</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>448</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>101</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>46</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Elie Saab Perfume &amp; Hand Cream – A Touch of Luxury ✨
 #ElieSaab #LuxuryFragrance #PerfumeSet</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>32.8125</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>22.54464285714286</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>10.26785714285714</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>2.232142857142857</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7472838921924185350</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>669</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>133</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>48</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>11</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>✨ Clear Skin with Himalaya Neem! ✨
 #SkincareRoutine
 #HimalayaNeem #ClearSkin #AcneFree #Skincare</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>27.05530642750374</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>19.88041853512706</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>7.174887892376682</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>1.64424514200299</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7471354595374140677</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>554</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>148</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>45</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>"The perfect Valentine’s Day gift ❤️🎁✨"
 #ValentinesDay #GiftIdea
@@ -1095,88 +1146,38 @@
 #TimelessElegance</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>34.83754512635379</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>26.71480144404332</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>8.122743682310469</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>1.985559566787004</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/photo/7470628973177769222</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>575</v>
-      </c>
-      <c r="C14" t="n">
-        <v>147</v>
-      </c>
-      <c r="D14" t="n">
-        <v>41</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>"Discover these must-have skincare products for glowing and healthy skin ✨ Each product is designed to meet your skin's needs. From repairing and soothing to deep hydration, these products have you covered! What are your skincare essentials? Let me know in the comments!</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>32.69565217391304</v>
-      </c>
-      <c r="I14" t="n">
-        <v>25.56521739130434</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.130434782608695</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.086956521739131</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@karima.ugc.creator/video/7469867594875538693</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>872</v>
       </c>
       <c r="C15" t="n">
         <v>147</v>
@@ -1196,939 +1197,989 @@
         </is>
       </c>
       <c r="H15" t="n">
+        <v>32.69565217391304</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25.56521739130434</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7.130434782608695</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.086956521739131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@karima.ugc.creator/video/7469867594875538693</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>872</v>
+      </c>
+      <c r="C16" t="n">
+        <v>147</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>"Discover these must-have skincare products for glowing and healthy skin ✨ Each product is designed to meet your skin's needs. From repairing and soothing to deep hydration, these products have you covered! What are your skincare essentials? Let me know in the comments!</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>21.55963302752294</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>16.85779816513761</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.701834862385321</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>1.376146788990826</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7469512158800399622</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>506</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>154</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>48</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>13</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>✨️"Neutrogena Hand Cream Concentrated: Original vs Fragrance-Free – Find Out Which One is Best for You!"✨️</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>39.9209486166008</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>30.43478260869566</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>9.486166007905137</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>2.569169960474309</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7468757129793375493</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>518</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>138</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>30</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>9</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>"Just a Girl… but with the Cutest #ugc #ugccreator #ugccontentcreator #ugccommunity</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>32.43243243243244</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>26.64092664092664</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.791505791505791</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>1.737451737451738</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7468035252846333189</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>489</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>157</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>48</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>13</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>EXAMPLE VIDEOS UGC
 #ugc #ugccreator #ugccontentcreator #ugccommunity #ugcexample #ugcjourney #fouryou</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>41.92229038854806</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>32.10633946830266</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>9.815950920245399</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>2.658486707566462</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7467270636772150534</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>466</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>158</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>45</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>9</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>"Warm and Elegant Pyjama"🥰🥰🤗
 #ugc #ugccreator #ugccontentcreator #ugccommunity #pyjamas</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>43.56223175965665</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>33.90557939914164</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>9.656652360515022</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>1.931330472103004</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7466395868833369349</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>510</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>153</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>41</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>"The Perfect Aldo Bag for Every Occasion 👜✨"
 #ugc #AldoBag #FashionUnboxing #LuxuryStyle</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>38.03921568627451</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>30</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>8.03921568627451</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>1.96078431372549</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7465405840376319237</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>697</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>180</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>34</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>8</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Good Morning 🫶🏻
 #goodmorning #ugc #ugccreator #ugcjourney #ugccontentcreator #ugccommunity #المغرب</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>30.70301291248206</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>25.82496413199426</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.878048780487805</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>1.14777618364419</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7464303347110104325</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>530</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>187</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>38</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>11</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>✨️Novexpert Mousse Nettoyante Flash Éclat✨️
 *Glow up with this skincare gem! ✨ Have you tried this product before? Let me know in the comments!*</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>42.45283018867924</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>35.28301886792453</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>7.169811320754717</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>2.075471698113208</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7463582716861205766</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>475</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>176</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>30</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>10</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>UGC example video
 #UGCExample #UGCCreator #Jewellery #GiftIdeas #MoroccanJewelry #ElegantStyle</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>43.36842105263158</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>37.05263157894737</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.315789473684211</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>2.105263157894737</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7463186106301910278</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>464</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>164</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>17</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>9</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>#Parfum
 #ugc #ugccreator #ugccontentcreator #ugccommunity #ugcexample #foryoupag</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>39.00862068965517</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>35.3448275862069</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.663793103448275</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>1.939655172413793</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7462435510770732294</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>510</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>160</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>26</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>9</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>My Favorite Perfumes😍
 #ugc #ugccreator #ugccontentcreator #ugccommunity #ugcexample</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>36.47058823529412</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>31.37254901960784</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>5.098039215686274</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>1.764705882352941</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7462080478347005189</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>312</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>149</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>23</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>5</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Sac et parfum #PARFOIS
 #ugc #ugccontentcreator #ugccontentcreator #ugccommunity #ugcjourney</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>55.12820512820513</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>47.75641025641026</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>7.371794871794872</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>1.602564102564102</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7461693698607156485</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>283</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>143</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>13</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>#ugc #ugccreator #ugccontentcreator #ugccommunity #ugctips #ugc</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>55.12367491166078</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>50.53003533568905</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.593639575971731</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>1.413427561837456</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7460962953848737029</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>421</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>145</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>22</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>9</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>"Must-Have Bag from Parfois!"
 This bag from Parfois is the perfect mix of elegance and trendiness 🌟. Whether you're heading to work or hanging out with friends, this bag completes your look in a chic and effortless way. 👜✨</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>39.66745843230404</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>34.44180522565321</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>5.225653206650831</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>2.137767220902613</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7459092321531956486</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>433</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>142</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>18</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>6</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>"Must-Have Bag from Parfois!"
 This bag from Parfois is the perfect mix of elegance and trendiness 🌟. Whether you're heading to work or hanging out with friends, this bag completes your look in a chic and effortless way. 👜✨</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>36.95150115473441</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>32.79445727482679</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>4.157043879907621</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>1.38568129330254</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7458720852390038790</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>402</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>129</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>21</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>8</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>#lipoil #ugc #ugccreator #UGCTips #ContentCreator
 #ForYou #FYP #explore #GlossyLips #HydratingLipOil</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>37.3134328358209</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>32.08955223880597</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>5.223880597014925</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>1.990049751243781</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7457215205462838533</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>422</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>127</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>28</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>8</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>#Yves Rocher's micellar water
 #ugctipsforbeginners #beginnerugc #ugccreator #ugcproducts #ugc</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>36.72985781990521</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>30.09478672985782</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>6.635071090047393</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>1.895734597156398</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-12</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7455446903841492229</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>482</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>118</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>23</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>9</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>#Parfum LEJOUR collection LES JOURS
 #ugctipsforbeginners #beginnerugc #ugccreator #ugcproducts #ugc</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>29.25311203319502</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>24.48132780082987</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.771784232365145</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>1.867219917012448</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-08</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@karima.ugc.creator/video/7454649207840869638</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>248</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>121</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>18</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>The Effaclar DUO+ SPF 30 cream by La Roche-Posay
 #ugc #ugccreator #ugccontentcreator #ugccommunity</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>56.04838709677419</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>48.79032258064516</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>7.258064516129033</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>2.016129032258065</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
